--- a/Sprint2/Documentação/Requisitos Senssky.xlsx
+++ b/Sprint2/Documentação/Requisitos Senssky.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\look\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/35deeba11b56e35e/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE16B374-5CB2-472F-AA69-47B4AE4CC37A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{68E60C67-B8D5-4715-80D8-9279BF464C9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRODUCT BACKLOG" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="95">
   <si>
     <t>DISCIPLINA</t>
   </si>
@@ -83,9 +83,6 @@
     <t>PI - Projeto criado no GitHub</t>
   </si>
   <si>
-    <t>Criar repositório do projeto, com todas as branches e regras.</t>
-  </si>
-  <si>
     <t>PP</t>
   </si>
   <si>
@@ -119,9 +116,6 @@
     <t>PI - Prototipo Site Institucional</t>
   </si>
   <si>
-    <t xml:space="preserve">Protótipo criado em Figma, deve ser uma landing page com as seguintes sessões: Inicio, Sobre nós, Serviço, contato e Footer com contatos, endereço e logo. </t>
-  </si>
-  <si>
     <t>ALG</t>
   </si>
   <si>
@@ -143,9 +137,6 @@
     <t>BD - Tabelas Mysql (script e inserção de dados)</t>
   </si>
   <si>
-    <t>Criação de tabelas no mysql que serão utilizadas no projeto. Scripts de inserção e manipulação de dados.</t>
-  </si>
-  <si>
     <t>G</t>
   </si>
   <si>
@@ -155,9 +146,6 @@
     <t>ARQ COMP - Instalação e configuração (IDE Arduino)</t>
   </si>
   <si>
-    <t>Montar a placa de arduino com o sensor de temperatura (LM35) e fazer a configuração do código.</t>
-  </si>
-  <si>
     <t>importante</t>
   </si>
   <si>
@@ -167,15 +155,9 @@
     <t>SO- Ligar arduino (Executar codigo)</t>
   </si>
   <si>
-    <t>Conectar a placa de arduino no computador por meio de um cabo usb e executar o codigo criado em uma IDE .</t>
-  </si>
-  <si>
     <t>SO - Setup cliente de virtualização</t>
   </si>
   <si>
-    <t>Utilizar uma maquina virtual para fazer a integração das atividades realizadas no banco de dados, na IDE e entre outras funções.</t>
-  </si>
-  <si>
     <t>Desejável</t>
   </si>
   <si>
@@ -194,9 +176,6 @@
     <t>ARQ.COMP - Simular a integração do Sistema ( utilização do Sensor + Gráfico )</t>
   </si>
   <si>
-    <t xml:space="preserve">Fazer uma simulação do sistema usando o sensor para captar os dados e criar um gráfico. </t>
-  </si>
-  <si>
     <t>ARQ.COMP - Usar API Local / Sensor</t>
   </si>
   <si>
@@ -221,9 +200,6 @@
     <t>TI - Diagrama de Solução (Arquitetura Técnica do Projeto)</t>
   </si>
   <si>
-    <t>Uma ferramenta a ser empregada na melhoria do desempenho de campanhas desenvolvidas no ambiente digital.</t>
-  </si>
-  <si>
     <t>TI - BackLog da Sprint (Demanda, Pontuação, Prioridade)</t>
   </si>
   <si>
@@ -239,9 +215,6 @@
     <t>ALG - Site Estático Dashboard</t>
   </si>
   <si>
-    <t>Site Institucional criado em HTML, com JavaScript, com foco na facilidade para nosso cliente conseguir acessar dados de longe, e de forma facil.</t>
-  </si>
-  <si>
     <t>SPRINT 1 REQUISITOS</t>
   </si>
   <si>
@@ -318,6 +291,36 @@
   </si>
   <si>
     <t>Senssky</t>
+  </si>
+  <si>
+    <t>Criar repositório do projeto, com todas as branches e regras</t>
+  </si>
+  <si>
+    <t>Protótipo criado em Figma, deve ser uma landing page com as seguintes sessões: Inicio, Sobre nós, Serviço, contato e Footer com contatos, endereço e logo</t>
+  </si>
+  <si>
+    <t>Criação de tabelas no mysql que serão utilizadas no projeto. Scripts de inserção e manipulação de dados</t>
+  </si>
+  <si>
+    <t>Montar a placa de arduino com o sensor de temperatura (LM35) e fazer a configuração do código</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conectar a placa de arduino no computador por meio de um cabo usb e executar o codigo criado em uma IDE </t>
+  </si>
+  <si>
+    <t>Utilizar uma maquina virtual para fazer a integração das atividades realizadas no banco de dados, na IDE e entre outras funções</t>
+  </si>
+  <si>
+    <t>Fazer uma simulação do sistema usando o sensor para captar os dados e criar um gráfico</t>
+  </si>
+  <si>
+    <t>Uma ferramenta a ser empregada na melhoria do desempenho de campanhas desenvolvidas no ambiente digital</t>
+  </si>
+  <si>
+    <t>Site Institucional criado em HTML, com JavaScript, com foco na facilidade para nosso cliente conseguir acessar dados de longe, e de forma facil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utilizar a API local para armazenar os dados capturados pelo sensor no banco de dados, com a API também será possível fazer a vizualização desses dados em uma página web </t>
   </si>
 </sst>
 </file>
@@ -414,15 +417,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -431,6 +425,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -769,22 +772,22 @@
   <dimension ref="A1:K82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="34" customWidth="1"/>
-    <col min="3" max="3" width="46.28515625" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="46.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -810,13 +813,13 @@
         <v>7</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -824,7 +827,7 @@
         <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>11</v>
@@ -833,30 +836,30 @@
         <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G2" s="3">
         <v>3</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="9">
+        <v>4</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="12">
-        <v>4</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>11</v>
@@ -865,46 +868,46 @@
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G3" s="2">
         <v>21</v>
       </c>
-      <c r="H3" s="9"/>
-    </row>
-    <row r="4" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="E4" s="3">
         <v>2</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G4" s="3">
         <v>8</v>
       </c>
-      <c r="H4" s="9"/>
-    </row>
-    <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>11</v>
@@ -913,22 +916,22 @@
         <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G5" s="2">
         <v>8</v>
       </c>
-      <c r="H5" s="9"/>
-    </row>
-    <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>11</v>
@@ -937,46 +940,46 @@
         <v>1</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G6" s="3">
         <v>21</v>
       </c>
-      <c r="H6" s="9"/>
-    </row>
-    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" s="2">
         <v>2</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G7" s="2">
         <v>3</v>
       </c>
-      <c r="H7" s="9"/>
-    </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>11</v>
@@ -985,97 +988,97 @@
         <v>1</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G8" s="3">
         <v>13</v>
       </c>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E9" s="2">
         <v>2</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G9" s="2">
         <v>8</v>
       </c>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" s="3">
         <v>2</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G10" s="3">
         <v>3</v>
       </c>
-      <c r="H10" s="9"/>
-    </row>
-    <row r="11" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E11" s="2">
         <v>3</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G11" s="2">
         <v>3</v>
       </c>
-      <c r="H11" s="9"/>
-    </row>
-    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="C12" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E12" s="3">
         <v>3</v>
@@ -1086,112 +1089,118 @@
       <c r="G12" s="3">
         <v>5</v>
       </c>
-      <c r="H12" s="9"/>
-    </row>
-    <row r="13" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13" s="2">
         <v>2</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G13" s="2">
         <v>13</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E14" s="3">
         <v>2</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G14" s="3">
         <v>21</v>
       </c>
-      <c r="H14" s="8"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H14" s="11"/>
+    </row>
+    <row r="15" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="2">
+        <v>3</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="2">
+        <v>21</v>
+      </c>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="2">
-        <v>21</v>
-      </c>
-      <c r="H15" s="8"/>
-    </row>
-    <row r="16" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="B16" s="3" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16" s="3">
         <v>2</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G16" s="3">
         <v>13</v>
       </c>
-      <c r="H16" s="8"/>
-    </row>
-    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H16" s="11"/>
+    </row>
+    <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E17" s="2">
         <v>2</v>
@@ -1202,17 +1211,17 @@
       <c r="G17" s="2">
         <v>5</v>
       </c>
-      <c r="H17" s="8"/>
-    </row>
-    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>11</v>
@@ -1221,22 +1230,22 @@
         <v>1</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G18" s="3">
         <v>13</v>
       </c>
-      <c r="H18" s="8"/>
-    </row>
-    <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="H18" s="11"/>
+    </row>
+    <row r="19" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>11</v>
@@ -1245,25 +1254,25 @@
         <v>1</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G19" s="2">
         <v>13</v>
       </c>
-      <c r="H19" s="8"/>
-    </row>
-    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H19" s="11"/>
+    </row>
+    <row r="20" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E20" s="3">
         <v>2</v>
@@ -1274,17 +1283,17 @@
       <c r="G20" s="3">
         <v>5</v>
       </c>
-      <c r="H20" s="8"/>
-    </row>
-    <row r="21" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="H20" s="11"/>
+    </row>
+    <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>11</v>
@@ -1293,22 +1302,22 @@
         <v>1</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G21" s="2">
         <v>13</v>
       </c>
-      <c r="H21" s="8"/>
-    </row>
-    <row r="22" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="H21" s="11"/>
+    </row>
+    <row r="22" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>11</v>
@@ -1317,14 +1326,14 @@
         <v>1</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G22" s="3">
         <v>21</v>
       </c>
-      <c r="H22" s="8"/>
-    </row>
-    <row r="23" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="H22" s="11"/>
+    </row>
+    <row r="23" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>8</v>
       </c>
@@ -1346,437 +1355,443 @@
       <c r="G23" s="2">
         <v>5</v>
       </c>
-      <c r="H23" s="8"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H23" s="11"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G24" s="3">
         <v>21</v>
       </c>
-      <c r="H24" s="9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H24" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G25" s="2">
         <v>21</v>
       </c>
-      <c r="H25" s="9"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H25" s="10"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="3">
+        <v>21</v>
+      </c>
+      <c r="H26" s="10"/>
+    </row>
+    <row r="27" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="2">
+        <v>21</v>
+      </c>
+      <c r="H27" s="10"/>
+    </row>
+    <row r="28" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="3">
+        <v>21</v>
+      </c>
+      <c r="H28" s="10"/>
+    </row>
+    <row r="29" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="2">
+        <v>21</v>
+      </c>
+      <c r="H29" s="10"/>
+    </row>
+    <row r="30" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" s="3">
+        <v>21</v>
+      </c>
+      <c r="H30" s="10"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" s="2">
+        <v>21</v>
+      </c>
+      <c r="H31" s="10"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" s="3">
+        <v>21</v>
+      </c>
+      <c r="H32" s="10"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" s="2">
+        <v>21</v>
+      </c>
+      <c r="H33" s="10"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" s="3">
+        <v>21</v>
+      </c>
+      <c r="H34" s="10"/>
+    </row>
+    <row r="35" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" s="3">
-        <v>21</v>
-      </c>
-      <c r="H26" s="9"/>
-    </row>
-    <row r="27" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="2" t="s">
+      <c r="C35" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" s="2">
+        <v>21</v>
+      </c>
+      <c r="H35" s="10"/>
+    </row>
+    <row r="36" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" s="2">
-        <v>21</v>
-      </c>
-      <c r="H27" s="9"/>
-    </row>
-    <row r="28" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G28" s="3">
-        <v>21</v>
-      </c>
-      <c r="H28" s="9"/>
-    </row>
-    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G29" s="2">
-        <v>21</v>
-      </c>
-      <c r="H29" s="9"/>
-    </row>
-    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G30" s="3">
-        <v>21</v>
-      </c>
-      <c r="H30" s="9"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D31" s="10"/>
-      <c r="E31" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" s="2">
-        <v>21</v>
-      </c>
-      <c r="H31" s="9"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G32" s="3">
-        <v>21</v>
-      </c>
-      <c r="H32" s="9"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G33" s="2">
-        <v>21</v>
-      </c>
-      <c r="H33" s="9"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G34" s="3">
-        <v>21</v>
-      </c>
-      <c r="H34" s="9"/>
-    </row>
-    <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G35" s="2">
-        <v>21</v>
-      </c>
-      <c r="H35" s="9"/>
-    </row>
-    <row r="36" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="C36" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>83</v>
+        <v>74</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G36" s="3">
         <v>21</v>
       </c>
-      <c r="H36" s="9"/>
-    </row>
-    <row r="40" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-    </row>
-    <row r="44" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="H36" s="10"/>
+    </row>
+    <row r="40" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+    </row>
+    <row r="44" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E44" s="2">
         <v>2</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G44" s="2">
         <v>13</v>
       </c>
-      <c r="H44" s="8" t="s">
+      <c r="H44" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E45" s="3">
         <v>2</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G45" s="3">
         <v>21</v>
       </c>
-      <c r="H45" s="8"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H45" s="11"/>
+    </row>
+    <row r="46" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="2">
+        <v>3</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G46" s="2">
+        <v>21</v>
+      </c>
+      <c r="H46" s="11"/>
+    </row>
+    <row r="47" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G46" s="2">
-        <v>21</v>
-      </c>
-      <c r="H46" s="8"/>
-    </row>
-    <row r="47" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="B47" s="3" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E47" s="3">
         <v>2</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G47" s="3">
         <v>13</v>
       </c>
-      <c r="H47" s="8"/>
-    </row>
-    <row r="48" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H47" s="11"/>
+    </row>
+    <row r="48" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E48" s="2">
         <v>2</v>
@@ -1787,17 +1802,17 @@
       <c r="G48" s="2">
         <v>5</v>
       </c>
-      <c r="H48" s="8"/>
-    </row>
-    <row r="49" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H48" s="11"/>
+    </row>
+    <row r="49" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>11</v>
@@ -1806,22 +1821,22 @@
         <v>1</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G49" s="3">
         <v>13</v>
       </c>
-      <c r="H49" s="8"/>
-    </row>
-    <row r="50" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="H49" s="11"/>
+    </row>
+    <row r="50" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>11</v>
@@ -1830,25 +1845,25 @@
         <v>1</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G50" s="2">
         <v>13</v>
       </c>
-      <c r="H50" s="8"/>
-    </row>
-    <row r="51" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H50" s="11"/>
+    </row>
+    <row r="51" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E51" s="3">
         <v>2</v>
@@ -1859,17 +1874,17 @@
       <c r="G51" s="3">
         <v>5</v>
       </c>
-      <c r="H51" s="8"/>
-    </row>
-    <row r="52" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="H51" s="11"/>
+    </row>
+    <row r="52" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>11</v>
@@ -1878,22 +1893,22 @@
         <v>1</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G52" s="2">
         <v>13</v>
       </c>
-      <c r="H52" s="8"/>
-    </row>
-    <row r="53" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="H52" s="11"/>
+    </row>
+    <row r="53" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>11</v>
@@ -1902,14 +1917,14 @@
         <v>1</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G53" s="3">
         <v>21</v>
       </c>
-      <c r="H53" s="8"/>
-    </row>
-    <row r="54" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="H53" s="11"/>
+    </row>
+    <row r="54" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>8</v>
       </c>
@@ -1931,21 +1946,21 @@
       <c r="G54" s="2">
         <v>5</v>
       </c>
-      <c r="H54" s="8"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-    </row>
-    <row r="57" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H54" s="11"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+    </row>
+    <row r="57" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>8</v>
       </c>
@@ -1953,7 +1968,7 @@
         <v>14</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>11</v>
@@ -1962,24 +1977,24 @@
         <v>1</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G57" s="3">
         <v>3</v>
       </c>
-      <c r="H57" s="9" t="s">
+      <c r="H57" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+      <c r="B58" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="C58" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>11</v>
@@ -1988,46 +2003,46 @@
         <v>1</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G58" s="2">
         <v>21</v>
       </c>
-      <c r="H58" s="9"/>
-    </row>
-    <row r="59" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="H58" s="10"/>
+    </row>
+    <row r="59" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B59" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="D59" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="E59" s="3">
         <v>2</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G59" s="3">
         <v>8</v>
       </c>
-      <c r="H59" s="9"/>
-    </row>
-    <row r="60" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="H59" s="10"/>
+    </row>
+    <row r="60" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>11</v>
@@ -2036,22 +2051,22 @@
         <v>1</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G60" s="2">
         <v>8</v>
       </c>
-      <c r="H60" s="9"/>
-    </row>
-    <row r="61" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="H60" s="10"/>
+    </row>
+    <row r="61" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>11</v>
@@ -2060,46 +2075,46 @@
         <v>1</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G61" s="3">
         <v>21</v>
       </c>
-      <c r="H61" s="9"/>
-    </row>
-    <row r="62" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H61" s="10"/>
+    </row>
+    <row r="62" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E62" s="2">
         <v>2</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G62" s="2">
         <v>3</v>
       </c>
-      <c r="H62" s="9"/>
-    </row>
-    <row r="63" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="H62" s="10"/>
+    </row>
+    <row r="63" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>11</v>
@@ -2108,97 +2123,97 @@
         <v>1</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G63" s="3">
         <v>13</v>
       </c>
-      <c r="H63" s="9"/>
-    </row>
-    <row r="64" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="H63" s="10"/>
+    </row>
+    <row r="64" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E64" s="2">
         <v>2</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G64" s="2">
         <v>8</v>
       </c>
-      <c r="H64" s="9"/>
-    </row>
-    <row r="65" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="H64" s="10"/>
+    </row>
+    <row r="65" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E65" s="3">
         <v>2</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G65" s="3">
         <v>3</v>
       </c>
-      <c r="H65" s="9"/>
-    </row>
-    <row r="66" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="H65" s="10"/>
+    </row>
+    <row r="66" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E66" s="2">
         <v>3</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G66" s="2">
         <v>3</v>
       </c>
-      <c r="H66" s="9"/>
-    </row>
-    <row r="67" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H66" s="10"/>
+    </row>
+    <row r="67" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B67" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B67" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="C67" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E67" s="3">
         <v>3</v>
@@ -2209,331 +2224,331 @@
       <c r="G67" s="3">
         <v>5</v>
       </c>
-      <c r="H67" s="9"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="7"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H67" s="10"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B69" s="12"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="12"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G70" s="3">
         <v>21</v>
       </c>
-      <c r="H70" s="9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H70" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G71" s="2">
         <v>21</v>
       </c>
-      <c r="H71" s="9"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H71" s="10"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B72" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G72" s="3">
+        <v>21</v>
+      </c>
+      <c r="H72" s="10"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G73" s="2">
+        <v>21</v>
+      </c>
+      <c r="H73" s="10"/>
+    </row>
+    <row r="74" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G74" s="3">
+        <v>21</v>
+      </c>
+      <c r="H74" s="10"/>
+    </row>
+    <row r="75" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G75" s="2">
+        <v>21</v>
+      </c>
+      <c r="H75" s="10"/>
+    </row>
+    <row r="76" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G76" s="3">
+        <v>21</v>
+      </c>
+      <c r="H76" s="10"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D77" s="7"/>
+      <c r="E77" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G77" s="2">
+        <v>21</v>
+      </c>
+      <c r="H77" s="10"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G78" s="3">
+        <v>21</v>
+      </c>
+      <c r="H78" s="10"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G79" s="2">
+        <v>21</v>
+      </c>
+      <c r="H79" s="10"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G80" s="3">
+        <v>21</v>
+      </c>
+      <c r="H80" s="10"/>
+    </row>
+    <row r="81" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C72" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G72" s="3">
-        <v>21</v>
-      </c>
-      <c r="H72" s="9"/>
-    </row>
-    <row r="73" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B73" s="2" t="s">
+      <c r="C81" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G81" s="2">
+        <v>21</v>
+      </c>
+      <c r="H81" s="10"/>
+    </row>
+    <row r="82" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A82" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B82" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G73" s="2">
-        <v>21</v>
-      </c>
-      <c r="H73" s="9"/>
-    </row>
-    <row r="74" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G74" s="3">
-        <v>21</v>
-      </c>
-      <c r="H74" s="9"/>
-    </row>
-    <row r="75" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D75" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G75" s="2">
-        <v>21</v>
-      </c>
-      <c r="H75" s="9"/>
-    </row>
-    <row r="76" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D76" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G76" s="3">
-        <v>21</v>
-      </c>
-      <c r="H76" s="9"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D77" s="10"/>
-      <c r="E77" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G77" s="2">
-        <v>21</v>
-      </c>
-      <c r="H77" s="9"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D78" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G78" s="3">
-        <v>21</v>
-      </c>
-      <c r="H78" s="9"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D79" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G79" s="2">
-        <v>21</v>
-      </c>
-      <c r="H79" s="9"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D80" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G80" s="3">
-        <v>21</v>
-      </c>
-      <c r="H80" s="9"/>
-    </row>
-    <row r="81" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D81" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G81" s="2">
-        <v>21</v>
-      </c>
-      <c r="H81" s="9"/>
-    </row>
-    <row r="82" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A82" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="C82" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D82" s="11" t="s">
-        <v>83</v>
+        <v>74</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G82" s="3">
         <v>21</v>
       </c>
-      <c r="H82" s="9"/>
+      <c r="H82" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/Sprint2/Documentação/Requisitos Senssky.xlsx
+++ b/Sprint2/Documentação/Requisitos Senssky.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/35deeba11b56e35e/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/35deeba11b56e35e/Documents/SPtech/SenSky/Senssky/Sprint2/Documentação/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68E60C67-B8D5-4715-80D8-9279BF464C9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="8_{68E60C67-B8D5-4715-80D8-9279BF464C9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6578A00A-5933-4FA1-824B-0905E0140FCE}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="96">
   <si>
     <t>DISCIPLINA</t>
   </si>
@@ -80,9 +80,6 @@
     <t>SP2</t>
   </si>
   <si>
-    <t>PI - Projeto criado no GitHub</t>
-  </si>
-  <si>
     <t>PP</t>
   </si>
   <si>
@@ -92,18 +89,12 @@
     <t>TI</t>
   </si>
   <si>
-    <t>TI - Documentação</t>
-  </si>
-  <si>
     <t>Criação da documentação do projeto incluindo contexto, justificativa, objetivo, escopo, requisitos, equipe, premissas e restrições</t>
   </si>
   <si>
     <t>GG</t>
   </si>
   <si>
-    <t>PI -Diagrama (Visão de Negocio)</t>
-  </si>
-  <si>
     <t>Criação de um diagrama de visão de negócio que contenha informações não técnicas para o projeto, de modo que o cliente entenda o que a solução tratá</t>
   </si>
   <si>
@@ -113,108 +104,54 @@
     <t>M</t>
   </si>
   <si>
-    <t>PI - Prototipo Site Institucional</t>
-  </si>
-  <si>
     <t>ALG</t>
   </si>
   <si>
-    <t>ALG - Simulador Financeiro</t>
-  </si>
-  <si>
     <t>Criar uma calculadora financeira que demonstre ao cliente quanto ele terá de economia utilizando o sistema SensSky</t>
   </si>
   <si>
-    <t>PI - Ferramenta de gestão</t>
-  </si>
-  <si>
     <t>Utilizar a ferramenta de gestão trello para administrar as taferas do projeto</t>
   </si>
   <si>
     <t>BD</t>
   </si>
   <si>
-    <t>BD - Tabelas Mysql (script e inserção de dados)</t>
-  </si>
-  <si>
     <t>G</t>
   </si>
   <si>
     <t>ARQ COMP</t>
   </si>
   <si>
-    <t>ARQ COMP - Instalação e configuração (IDE Arduino)</t>
-  </si>
-  <si>
     <t>importante</t>
   </si>
   <si>
     <t>SO</t>
   </si>
   <si>
-    <t>SO- Ligar arduino (Executar codigo)</t>
-  </si>
-  <si>
-    <t>SO - Setup cliente de virtualização</t>
-  </si>
-  <si>
     <t>Desejável</t>
   </si>
   <si>
-    <t>SO -Linux na VM Local</t>
-  </si>
-  <si>
     <t>Utilizar o Linux na maquina virtual para fazer a integração de dados</t>
   </si>
   <si>
-    <t>PI - Especificação da Dashboard</t>
-  </si>
-  <si>
     <t>Decidir a dashboard ideal para apresentação no site, visando ter elementos gráficos claros e objetivos para o entendimento do cliente</t>
   </si>
   <si>
-    <t>ARQ.COMP - Simular a integração do Sistema ( utilização do Sensor + Gráfico )</t>
-  </si>
-  <si>
-    <t>ARQ.COMP - Usar API Local / Sensor</t>
-  </si>
-  <si>
-    <t>SO - Instalar MYSQL na VMLinux e inserção de dados do Arduíno no MySQL na mesma máquina</t>
-  </si>
-  <si>
     <t>Fazer a instalação do MYSQL (BD) em uma maquina virtual</t>
   </si>
   <si>
-    <t>SO - Validar a solução técnica</t>
-  </si>
-  <si>
     <t>Levar para consultar se foi realizada corretamente a instalção e execução dos Scripts na  VM</t>
   </si>
   <si>
-    <t>ALG - Site Estático Institucional</t>
-  </si>
-  <si>
     <t>Programar o site institucional que foi projetado no protótipo do site</t>
   </si>
   <si>
-    <t>TI - Diagrama de Solução (Arquitetura Técnica do Projeto)</t>
-  </si>
-  <si>
-    <t>TI - BackLog da Sprint (Demanda, Pontuação, Prioridade)</t>
-  </si>
-  <si>
     <t>Todos os Requisitos do projeto</t>
   </si>
   <si>
-    <t>ALG - Site Estático Cadastro e Login</t>
-  </si>
-  <si>
     <t>Criação de tela para cadastro de avão, login, empresa, cargo, tudo isso com ligação ao banco de dados</t>
   </si>
   <si>
-    <t>ALG - Site Estático Dashboard</t>
-  </si>
-  <si>
     <t>SPRINT 1 REQUISITOS</t>
   </si>
   <si>
@@ -321,6 +258,72 @@
   </si>
   <si>
     <t xml:space="preserve">Utilizar a API local para armazenar os dados capturados pelo sensor no banco de dados, com a API também será possível fazer a vizualização desses dados em uma página web </t>
+  </si>
+  <si>
+    <t>Projeto criado no GitHub</t>
+  </si>
+  <si>
+    <t>Documentação</t>
+  </si>
+  <si>
+    <t>Diagrama (Visão de Negocio)</t>
+  </si>
+  <si>
+    <t>Prototipo Site Institucional</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Simulador Financeiro</t>
+  </si>
+  <si>
+    <t>Ferramenta de gestão</t>
+  </si>
+  <si>
+    <t>Tabelas Mysql (script e inserção de dados)</t>
+  </si>
+  <si>
+    <t>Instalação e configuração (IDE Arduino)</t>
+  </si>
+  <si>
+    <t>Ligar arduino (Executar codigo)</t>
+  </si>
+  <si>
+    <t>Setup cliente de virtualização</t>
+  </si>
+  <si>
+    <t>Linux na VM Local</t>
+  </si>
+  <si>
+    <t>Especificação da Dashboard</t>
+  </si>
+  <si>
+    <t>Simular a integração do Sistema ( utilização do Sensor + Gráfico )</t>
+  </si>
+  <si>
+    <t>Usar API Local / Sensor</t>
+  </si>
+  <si>
+    <t>Instalar MYSQL na VMLinux e inserção de dados do Arduíno no MySQL na mesma máquina</t>
+  </si>
+  <si>
+    <t>Validar a solução técnica</t>
+  </si>
+  <si>
+    <t>Site Estático Institucional</t>
+  </si>
+  <si>
+    <t>Diagrama de Solução (Arquitetura Técnica do Projeto)</t>
+  </si>
+  <si>
+    <t>BackLog da Sprint (Demanda, Pontuação, Prioridade)</t>
+  </si>
+  <si>
+    <t>Site Estático Cadastro e Login</t>
+  </si>
+  <si>
+    <t>Site Estático Dashboard</t>
+  </si>
+  <si>
+    <t>Simulador Financeiro</t>
   </si>
 </sst>
 </file>
@@ -772,7 +775,7 @@
   <dimension ref="A1:K82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -813,10 +816,10 @@
         <v>7</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -824,10 +827,10 @@
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>11</v>
@@ -836,30 +839,30 @@
         <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G2" s="3">
         <v>3</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J2" s="9">
         <v>4</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>11</v>
@@ -868,7 +871,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G3" s="2">
         <v>21</v>
@@ -880,19 +883,19 @@
         <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E4" s="3">
         <v>2</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G4" s="3">
         <v>8</v>
@@ -904,10 +907,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>11</v>
@@ -916,7 +919,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G5" s="2">
         <v>8</v>
@@ -925,13 +928,13 @@
     </row>
     <row r="6" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>11</v>
@@ -940,7 +943,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G6" s="3">
         <v>21</v>
@@ -952,19 +955,19 @@
         <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7" s="2">
         <v>2</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G7" s="2">
         <v>3</v>
@@ -973,13 +976,13 @@
     </row>
     <row r="8" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>11</v>
@@ -988,7 +991,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G8" s="3">
         <v>13</v>
@@ -997,22 +1000,22 @@
     </row>
     <row r="9" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E9" s="2">
         <v>2</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G9" s="2">
         <v>8</v>
@@ -1021,22 +1024,22 @@
     </row>
     <row r="10" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10" s="3">
         <v>2</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G10" s="3">
         <v>3</v>
@@ -1045,22 +1048,22 @@
     </row>
     <row r="11" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E11" s="2">
         <v>3</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G11" s="2">
         <v>3</v>
@@ -1069,16 +1072,16 @@
     </row>
     <row r="12" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E12" s="3">
         <v>3</v>
@@ -1096,19 +1099,19 @@
         <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E13" s="2">
         <v>2</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G13" s="2">
         <v>13</v>
@@ -1119,22 +1122,22 @@
     </row>
     <row r="14" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14" s="3">
         <v>2</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G14" s="3">
         <v>21</v>
@@ -1143,13 +1146,13 @@
     </row>
     <row r="15" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>11</v>
@@ -1158,7 +1161,7 @@
         <v>3</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G15" s="2">
         <v>21</v>
@@ -1167,22 +1170,22 @@
     </row>
     <row r="16" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E16" s="3">
         <v>2</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G16" s="3">
         <v>13</v>
@@ -1191,16 +1194,16 @@
     </row>
     <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E17" s="2">
         <v>2</v>
@@ -1215,13 +1218,13 @@
     </row>
     <row r="18" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>11</v>
@@ -1230,7 +1233,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G18" s="3">
         <v>13</v>
@@ -1239,13 +1242,13 @@
     </row>
     <row r="19" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>11</v>
@@ -1254,7 +1257,7 @@
         <v>1</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G19" s="2">
         <v>13</v>
@@ -1263,16 +1266,16 @@
     </row>
     <row r="20" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E20" s="3">
         <v>2</v>
@@ -1287,13 +1290,13 @@
     </row>
     <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>11</v>
@@ -1302,7 +1305,7 @@
         <v>1</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G21" s="2">
         <v>13</v>
@@ -1311,13 +1314,13 @@
     </row>
     <row r="22" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>11</v>
@@ -1326,7 +1329,7 @@
         <v>1</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G22" s="3">
         <v>21</v>
@@ -1362,25 +1365,25 @@
         <v>8</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G24" s="3">
         <v>21</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -1388,19 +1391,19 @@
         <v>8</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G25" s="2">
         <v>21</v>
@@ -1412,19 +1415,19 @@
         <v>8</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G26" s="3">
         <v>21</v>
@@ -1433,22 +1436,22 @@
     </row>
     <row r="27" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G27" s="2">
         <v>21</v>
@@ -1457,22 +1460,22 @@
     </row>
     <row r="28" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G28" s="3">
         <v>21</v>
@@ -1481,22 +1484,22 @@
     </row>
     <row r="29" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G29" s="2">
         <v>21</v>
@@ -1505,22 +1508,22 @@
     </row>
     <row r="30" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G30" s="3">
         <v>21</v>
@@ -1529,20 +1532,20 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="2" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G31" s="2">
         <v>21</v>
@@ -1551,22 +1554,22 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G32" s="3">
         <v>21</v>
@@ -1575,22 +1578,22 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G33" s="2">
         <v>21</v>
@@ -1599,22 +1602,22 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G34" s="3">
         <v>21</v>
@@ -1623,22 +1626,22 @@
     </row>
     <row r="35" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G35" s="2">
         <v>21</v>
@@ -1647,22 +1650,22 @@
     </row>
     <row r="36" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G36" s="3">
         <v>21</v>
@@ -1672,7 +1675,7 @@
     <row r="40" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="12" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
@@ -1687,19 +1690,19 @@
         <v>8</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E44" s="2">
         <v>2</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G44" s="2">
         <v>13</v>
@@ -1710,22 +1713,22 @@
     </row>
     <row r="45" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E45" s="3">
         <v>2</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G45" s="3">
         <v>21</v>
@@ -1734,13 +1737,13 @@
     </row>
     <row r="46" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>11</v>
@@ -1749,7 +1752,7 @@
         <v>3</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G46" s="2">
         <v>21</v>
@@ -1758,22 +1761,22 @@
     </row>
     <row r="47" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E47" s="3">
         <v>2</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G47" s="3">
         <v>13</v>
@@ -1782,16 +1785,16 @@
     </row>
     <row r="48" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E48" s="2">
         <v>2</v>
@@ -1806,13 +1809,13 @@
     </row>
     <row r="49" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>11</v>
@@ -1821,7 +1824,7 @@
         <v>1</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G49" s="3">
         <v>13</v>
@@ -1830,13 +1833,13 @@
     </row>
     <row r="50" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>11</v>
@@ -1845,7 +1848,7 @@
         <v>1</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G50" s="2">
         <v>13</v>
@@ -1854,16 +1857,16 @@
     </row>
     <row r="51" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E51" s="3">
         <v>2</v>
@@ -1878,13 +1881,13 @@
     </row>
     <row r="52" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>11</v>
@@ -1893,7 +1896,7 @@
         <v>1</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G52" s="2">
         <v>13</v>
@@ -1902,13 +1905,13 @@
     </row>
     <row r="53" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>11</v>
@@ -1917,7 +1920,7 @@
         <v>1</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G53" s="3">
         <v>21</v>
@@ -1950,7 +1953,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="12" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
@@ -1965,10 +1968,10 @@
         <v>8</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>11</v>
@@ -1977,24 +1980,24 @@
         <v>1</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G57" s="3">
         <v>3</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>11</v>
@@ -2003,7 +2006,7 @@
         <v>1</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G58" s="2">
         <v>21</v>
@@ -2015,19 +2018,19 @@
         <v>8</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E59" s="3">
         <v>2</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G59" s="3">
         <v>8</v>
@@ -2039,10 +2042,10 @@
         <v>8</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>11</v>
@@ -2051,7 +2054,7 @@
         <v>1</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G60" s="2">
         <v>8</v>
@@ -2060,13 +2063,13 @@
     </row>
     <row r="61" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>11</v>
@@ -2075,7 +2078,7 @@
         <v>1</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G61" s="3">
         <v>21</v>
@@ -2087,19 +2090,19 @@
         <v>8</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E62" s="2">
         <v>2</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G62" s="2">
         <v>3</v>
@@ -2108,13 +2111,13 @@
     </row>
     <row r="63" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>11</v>
@@ -2123,7 +2126,7 @@
         <v>1</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G63" s="3">
         <v>13</v>
@@ -2132,22 +2135,22 @@
     </row>
     <row r="64" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E64" s="2">
         <v>2</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G64" s="2">
         <v>8</v>
@@ -2156,22 +2159,22 @@
     </row>
     <row r="65" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E65" s="3">
         <v>2</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G65" s="3">
         <v>3</v>
@@ -2180,22 +2183,22 @@
     </row>
     <row r="66" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E66" s="2">
         <v>3</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G66" s="2">
         <v>3</v>
@@ -2204,16 +2207,16 @@
     </row>
     <row r="67" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E67" s="3">
         <v>3</v>
@@ -2228,7 +2231,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="12" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="B69" s="12"/>
       <c r="C69" s="12"/>
@@ -2243,25 +2246,25 @@
         <v>8</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G70" s="3">
         <v>21</v>
       </c>
       <c r="H70" s="10" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
@@ -2269,19 +2272,19 @@
         <v>8</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G71" s="2">
         <v>21</v>
@@ -2293,19 +2296,19 @@
         <v>8</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G72" s="3">
         <v>21</v>
@@ -2314,22 +2317,22 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G73" s="2">
         <v>21</v>
@@ -2338,22 +2341,22 @@
     </row>
     <row r="74" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G74" s="3">
         <v>21</v>
@@ -2362,22 +2365,22 @@
     </row>
     <row r="75" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G75" s="2">
         <v>21</v>
@@ -2386,22 +2389,22 @@
     </row>
     <row r="76" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G76" s="3">
         <v>21</v>
@@ -2410,20 +2413,20 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="D77" s="7"/>
       <c r="E77" s="2" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G77" s="2">
         <v>21</v>
@@ -2432,22 +2435,22 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="D78" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G78" s="3">
         <v>21</v>
@@ -2456,22 +2459,22 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G79" s="2">
         <v>21</v>
@@ -2480,22 +2483,22 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G80" s="3">
         <v>21</v>
@@ -2504,22 +2507,22 @@
     </row>
     <row r="81" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G81" s="2">
         <v>21</v>
@@ -2528,22 +2531,22 @@
     </row>
     <row r="82" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G82" s="3">
         <v>21</v>

--- a/Sprint2/Documentação/Requisitos Senssky.xlsx
+++ b/Sprint2/Documentação/Requisitos Senssky.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/35deeba11b56e35e/Documents/SPtech/SenSky/Senssky/Sprint2/Documentação/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="8_{68E60C67-B8D5-4715-80D8-9279BF464C9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6578A00A-5933-4FA1-824B-0905E0140FCE}"/>
+  <xr:revisionPtr revIDLastSave="62" documentId="8_{68E60C67-B8D5-4715-80D8-9279BF464C9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{590EFC15-51E8-44F9-9052-A7DF66F0403F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="112">
   <si>
     <t>DISCIPLINA</t>
   </si>
@@ -324,6 +324,54 @@
   </si>
   <si>
     <t>Simulador Financeiro</t>
+  </si>
+  <si>
+    <t>Protótipo Site Institucional</t>
+  </si>
+  <si>
+    <t>Criação de um diagrama de visão de negócio que contenha informações não técnicas para o projeto, de modo que o cliente entenda o que a solução trata</t>
+  </si>
+  <si>
+    <t>Diagrama (Visão de Negócio)</t>
+  </si>
+  <si>
+    <t>Utilizar a ferramenta de gestão trello para administrar as tarefas do projeto</t>
+  </si>
+  <si>
+    <t>Tabelas MYSQL (script e inserção de dados)</t>
+  </si>
+  <si>
+    <t>Criação de tabelas no MYSQL que serão utilizadas no projeto. Scripts de inserção e manipulação de dados</t>
+  </si>
+  <si>
+    <t>Montar a placa de Arduino com o sensor de temperatura (LM35) e fazer a configuração do código</t>
+  </si>
+  <si>
+    <t>Ligar Arduino (Executar código)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conectar a placa de Arduino no computador por meio de um cabo usb e executar o código criado em uma IDE </t>
+  </si>
+  <si>
+    <t>Utilizar uma máquina virtual para fazer a integração das atividades realizadas no banco de dados, na IDE e entre outras funções</t>
+  </si>
+  <si>
+    <t>Utilizar o Linux na máquina virtual para fazer a integração de dados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utilizar a API local para armazenar os dados capturados pelo sensor no banco de dados, com a API também será possível fazer a visualização desses dados em uma página web </t>
+  </si>
+  <si>
+    <t>Fazer a instalação do MYSQL (BD) em uma máquina virtual</t>
+  </si>
+  <si>
+    <t>Levar para consultar se foi realizada corretamente a instalação e execução dos Scripts na  VM</t>
+  </si>
+  <si>
+    <t>Criação de tela para cadastro de avião, login, empresa, cargo, tudo isso com ligação ao banco de dados</t>
+  </si>
+  <si>
+    <t>Site Institucional criado em HTML, com JavaScript, com foco na facilidade para nosso cliente conseguir acessar dados de longe, e de forma fácil</t>
   </si>
 </sst>
 </file>
@@ -453,6 +501,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -775,7 +827,7 @@
   <dimension ref="A1:K82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -883,10 +935,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>20</v>
@@ -907,7 +959,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>65</v>
@@ -958,7 +1010,7 @@
         <v>79</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>20</v>
@@ -979,10 +1031,10 @@
         <v>25</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>11</v>
@@ -1006,7 +1058,7 @@
         <v>81</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>28</v>
@@ -1027,10 +1079,10 @@
         <v>29</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>20</v>
@@ -1054,7 +1106,7 @@
         <v>83</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>30</v>
@@ -1078,7 +1130,7 @@
         <v>84</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>30</v>
@@ -1152,7 +1204,7 @@
         <v>87</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>11</v>
@@ -1176,7 +1228,7 @@
         <v>88</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>33</v>
+        <v>108</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>20</v>
@@ -1200,7 +1252,7 @@
         <v>89</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>34</v>
+        <v>109</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>20</v>
@@ -1296,7 +1348,7 @@
         <v>93</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>11</v>
@@ -1320,7 +1372,7 @@
         <v>94</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>11</v>

--- a/Sprint2/Documentação/Requisitos Senssky.xlsx
+++ b/Sprint2/Documentação/Requisitos Senssky.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/35deeba11b56e35e/Documents/SPtech/SenSky/Senssky/Sprint2/Documentação/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="8_{68E60C67-B8D5-4715-80D8-9279BF464C9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{590EFC15-51E8-44F9-9052-A7DF66F0403F}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="8_{68E60C67-B8D5-4715-80D8-9279BF464C9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{216C515F-EF0B-40A1-9359-DB3949BE50C5}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1164" yWindow="1752" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRODUCT BACKLOG" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="95">
   <si>
     <t>DISCIPLINA</t>
   </si>
@@ -95,9 +95,6 @@
     <t>GG</t>
   </si>
   <si>
-    <t>Criação de um diagrama de visão de negócio que contenha informações não técnicas para o projeto, de modo que o cliente entenda o que a solução tratá</t>
-  </si>
-  <si>
     <t>Importante</t>
   </si>
   <si>
@@ -110,9 +107,6 @@
     <t>Criar uma calculadora financeira que demonstre ao cliente quanto ele terá de economia utilizando o sistema SensSky</t>
   </si>
   <si>
-    <t>Utilizar a ferramenta de gestão trello para administrar as taferas do projeto</t>
-  </si>
-  <si>
     <t>BD</t>
   </si>
   <si>
@@ -131,27 +125,15 @@
     <t>Desejável</t>
   </si>
   <si>
-    <t>Utilizar o Linux na maquina virtual para fazer a integração de dados</t>
-  </si>
-  <si>
     <t>Decidir a dashboard ideal para apresentação no site, visando ter elementos gráficos claros e objetivos para o entendimento do cliente</t>
   </si>
   <si>
-    <t>Fazer a instalação do MYSQL (BD) em uma maquina virtual</t>
-  </si>
-  <si>
-    <t>Levar para consultar se foi realizada corretamente a instalção e execução dos Scripts na  VM</t>
-  </si>
-  <si>
     <t>Programar o site institucional que foi projetado no protótipo do site</t>
   </si>
   <si>
     <t>Todos os Requisitos do projeto</t>
   </si>
   <si>
-    <t>Criação de tela para cadastro de avão, login, empresa, cargo, tudo isso com ligação ao banco de dados</t>
-  </si>
-  <si>
     <t>SPRINT 1 REQUISITOS</t>
   </si>
   <si>
@@ -236,57 +218,27 @@
     <t>Protótipo criado em Figma, deve ser uma landing page com as seguintes sessões: Inicio, Sobre nós, Serviço, contato e Footer com contatos, endereço e logo</t>
   </si>
   <si>
-    <t>Criação de tabelas no mysql que serão utilizadas no projeto. Scripts de inserção e manipulação de dados</t>
-  </si>
-  <si>
-    <t>Montar a placa de arduino com o sensor de temperatura (LM35) e fazer a configuração do código</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conectar a placa de arduino no computador por meio de um cabo usb e executar o codigo criado em uma IDE </t>
-  </si>
-  <si>
-    <t>Utilizar uma maquina virtual para fazer a integração das atividades realizadas no banco de dados, na IDE e entre outras funções</t>
-  </si>
-  <si>
     <t>Fazer uma simulação do sistema usando o sensor para captar os dados e criar um gráfico</t>
   </si>
   <si>
     <t>Uma ferramenta a ser empregada na melhoria do desempenho de campanhas desenvolvidas no ambiente digital</t>
   </si>
   <si>
-    <t>Site Institucional criado em HTML, com JavaScript, com foco na facilidade para nosso cliente conseguir acessar dados de longe, e de forma facil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utilizar a API local para armazenar os dados capturados pelo sensor no banco de dados, com a API também será possível fazer a vizualização desses dados em uma página web </t>
-  </si>
-  <si>
     <t>Projeto criado no GitHub</t>
   </si>
   <si>
     <t>Documentação</t>
   </si>
   <si>
-    <t>Diagrama (Visão de Negocio)</t>
-  </si>
-  <si>
-    <t>Prototipo Site Institucional</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Simulador Financeiro</t>
   </si>
   <si>
     <t>Ferramenta de gestão</t>
   </si>
   <si>
-    <t>Tabelas Mysql (script e inserção de dados)</t>
-  </si>
-  <si>
     <t>Instalação e configuração (IDE Arduino)</t>
   </si>
   <si>
-    <t>Ligar arduino (Executar codigo)</t>
-  </si>
-  <si>
     <t>Setup cliente de virtualização</t>
   </si>
   <si>
@@ -321,9 +273,6 @@
   </si>
   <si>
     <t>Site Estático Dashboard</t>
-  </si>
-  <si>
-    <t>Simulador Financeiro</t>
   </si>
   <si>
     <t>Protótipo Site Institucional</t>
@@ -827,7 +776,7 @@
   <dimension ref="A1:K82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="H2" sqref="H2:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -868,10 +817,10 @@
         <v>7</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -879,10 +828,10 @@
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>11</v>
@@ -903,7 +852,7 @@
         <v>4</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -911,7 +860,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>17</v>
@@ -935,19 +884,19 @@
         <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" s="3">
         <v>2</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G4" s="3">
         <v>8</v>
@@ -959,10 +908,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>11</v>
@@ -971,7 +920,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G5" s="2">
         <v>8</v>
@@ -980,13 +929,13 @@
     </row>
     <row r="6" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>11</v>
@@ -1007,13 +956,13 @@
         <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" s="2">
         <v>2</v>
@@ -1028,13 +977,13 @@
     </row>
     <row r="8" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>11</v>
@@ -1043,7 +992,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G8" s="3">
         <v>13</v>
@@ -1052,22 +1001,22 @@
     </row>
     <row r="9" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E9" s="2">
         <v>2</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G9" s="2">
         <v>8</v>
@@ -1076,16 +1025,16 @@
     </row>
     <row r="10" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10" s="3">
         <v>2</v>
@@ -1100,16 +1049,16 @@
     </row>
     <row r="11" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E11" s="2">
         <v>3</v>
@@ -1124,16 +1073,16 @@
     </row>
     <row r="12" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E12" s="3">
         <v>3</v>
@@ -1151,19 +1100,19 @@
         <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E13" s="2">
         <v>2</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G13" s="2">
         <v>13</v>
@@ -1174,16 +1123,16 @@
     </row>
     <row r="14" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E14" s="3">
         <v>2</v>
@@ -1198,13 +1147,13 @@
     </row>
     <row r="15" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>11</v>
@@ -1222,22 +1171,22 @@
     </row>
     <row r="16" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E16" s="3">
         <v>2</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G16" s="3">
         <v>13</v>
@@ -1246,16 +1195,16 @@
     </row>
     <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E17" s="2">
         <v>2</v>
@@ -1270,13 +1219,13 @@
     </row>
     <row r="18" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>11</v>
@@ -1285,7 +1234,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G18" s="3">
         <v>13</v>
@@ -1297,10 +1246,10 @@
         <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>11</v>
@@ -1309,7 +1258,7 @@
         <v>1</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G19" s="2">
         <v>13</v>
@@ -1321,13 +1270,13 @@
         <v>16</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E20" s="3">
         <v>2</v>
@@ -1342,13 +1291,13 @@
     </row>
     <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>11</v>
@@ -1357,7 +1306,7 @@
         <v>1</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G21" s="2">
         <v>13</v>
@@ -1366,13 +1315,13 @@
     </row>
     <row r="22" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>11</v>
@@ -1417,25 +1366,25 @@
         <v>8</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="3">
+        <v>21</v>
+      </c>
+      <c r="H24" s="10" t="s">
         <v>53</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="3">
-        <v>21</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -1443,16 +1392,16 @@
         <v>8</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>18</v>
@@ -1467,16 +1416,16 @@
         <v>8</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>18</v>
@@ -1488,19 +1437,19 @@
     </row>
     <row r="27" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>18</v>
@@ -1512,19 +1461,19 @@
     </row>
     <row r="28" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>18</v>
@@ -1539,16 +1488,16 @@
         <v>16</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>18</v>
@@ -1563,16 +1512,16 @@
         <v>16</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>18</v>
@@ -1587,14 +1536,14 @@
         <v>16</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>18</v>
@@ -1606,19 +1555,19 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>18</v>
@@ -1630,19 +1579,19 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>18</v>
@@ -1654,19 +1603,19 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>18</v>
@@ -1678,19 +1627,19 @@
     </row>
     <row r="35" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>18</v>
@@ -1702,19 +1651,19 @@
     </row>
     <row r="36" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>18</v>
@@ -1727,7 +1676,7 @@
     <row r="40" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="12" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
@@ -1742,19 +1691,19 @@
         <v>8</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E44" s="2">
         <v>2</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G44" s="2">
         <v>13</v>
@@ -1765,16 +1714,16 @@
     </row>
     <row r="45" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E45" s="3">
         <v>2</v>
@@ -1789,13 +1738,13 @@
     </row>
     <row r="46" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>11</v>
@@ -1813,22 +1762,22 @@
     </row>
     <row r="47" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E47" s="3">
         <v>2</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G47" s="3">
         <v>13</v>
@@ -1837,16 +1786,16 @@
     </row>
     <row r="48" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E48" s="2">
         <v>2</v>
@@ -1861,13 +1810,13 @@
     </row>
     <row r="49" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>11</v>
@@ -1876,7 +1825,7 @@
         <v>1</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G49" s="3">
         <v>13</v>
@@ -1888,10 +1837,10 @@
         <v>16</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>11</v>
@@ -1900,7 +1849,7 @@
         <v>1</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G50" s="2">
         <v>13</v>
@@ -1912,13 +1861,13 @@
         <v>16</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E51" s="3">
         <v>2</v>
@@ -1933,13 +1882,13 @@
     </row>
     <row r="52" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>11</v>
@@ -1948,7 +1897,7 @@
         <v>1</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G52" s="2">
         <v>13</v>
@@ -1957,13 +1906,13 @@
     </row>
     <row r="53" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>11</v>
@@ -2005,7 +1954,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="12" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
@@ -2020,10 +1969,10 @@
         <v>8</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>11</v>
@@ -2046,7 +1995,7 @@
         <v>16</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>17</v>
@@ -2070,19 +2019,19 @@
         <v>8</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C59" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D59" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="E59" s="3">
         <v>2</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G59" s="3">
         <v>8</v>
@@ -2094,10 +2043,10 @@
         <v>8</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>11</v>
@@ -2106,7 +2055,7 @@
         <v>1</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G60" s="2">
         <v>8</v>
@@ -2115,13 +2064,13 @@
     </row>
     <row r="61" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>11</v>
@@ -2142,13 +2091,13 @@
         <v>8</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E62" s="2">
         <v>2</v>
@@ -2163,13 +2112,13 @@
     </row>
     <row r="63" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>11</v>
@@ -2178,7 +2127,7 @@
         <v>1</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G63" s="3">
         <v>13</v>
@@ -2187,22 +2136,22 @@
     </row>
     <row r="64" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E64" s="2">
         <v>2</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G64" s="2">
         <v>8</v>
@@ -2211,16 +2160,16 @@
     </row>
     <row r="65" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E65" s="3">
         <v>2</v>
@@ -2235,16 +2184,16 @@
     </row>
     <row r="66" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E66" s="2">
         <v>3</v>
@@ -2259,16 +2208,16 @@
     </row>
     <row r="67" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E67" s="3">
         <v>3</v>
@@ -2283,7 +2232,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="12" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B69" s="12"/>
       <c r="C69" s="12"/>
@@ -2298,25 +2247,25 @@
         <v>8</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C70" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G70" s="3">
+        <v>21</v>
+      </c>
+      <c r="H70" s="10" t="s">
         <v>53</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G70" s="3">
-        <v>21</v>
-      </c>
-      <c r="H70" s="10" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
@@ -2324,16 +2273,16 @@
         <v>8</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>18</v>
@@ -2348,16 +2297,16 @@
         <v>8</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>18</v>
@@ -2369,19 +2318,19 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>18</v>
@@ -2393,19 +2342,19 @@
     </row>
     <row r="74" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F74" s="3" t="s">
         <v>18</v>
@@ -2420,16 +2369,16 @@
         <v>16</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>18</v>
@@ -2444,16 +2393,16 @@
         <v>16</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>18</v>
@@ -2468,14 +2417,14 @@
         <v>16</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D77" s="7"/>
       <c r="E77" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>18</v>
@@ -2487,19 +2436,19 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D78" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F78" s="3" t="s">
         <v>18</v>
@@ -2511,19 +2460,19 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>18</v>
@@ -2535,19 +2484,19 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F80" s="3" t="s">
         <v>18</v>
@@ -2559,19 +2508,19 @@
     </row>
     <row r="81" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>18</v>
@@ -2583,19 +2532,19 @@
     </row>
     <row r="82" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F82" s="3" t="s">
         <v>18</v>
